--- a/biology/Zoologie/Catalog_of_Fishes/Catalog_of_Fishes.xlsx
+++ b/biology/Zoologie/Catalog_of_Fishes/Catalog_of_Fishes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Catalog of Fishes est une base de données en ligne et une référence sur les noms scientifiques des espèces et genres de poissons.
@@ -513,7 +525,9 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La taxonomie maintenue par Catalog of Fishes est considérée comme faisant autorité et est utilisée comme référence. Ce catalogue comporte environ 58 300 entrées, dont 33 400 sont reconnues comme valides et 10 600 pour les genres dont 5 100 valides.
 Les informations que l'on peut y trouver sont, pour une espèce donnée :
